--- a/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
+++ b/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E3494C-CF83-4210-9586-98FD53326383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DBD4C4-AFC9-4842-A4B4-7C869CAE1072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>SL. No</t>
   </si>
@@ -298,6 +298,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> are the Reset and Apply options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It gets displayed All oulets list and Status are</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Pending processing, In progress and Pending review"</t>
     </r>
   </si>
 </sst>
@@ -702,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,6 +955,12 @@
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
+++ b/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DBD4C4-AFC9-4842-A4B4-7C869CAE1072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7A7ED0-02AF-496A-92FD-65E0E11996CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>SL. No</t>
   </si>
@@ -315,6 +315,61 @@
       </rPr>
       <t xml:space="preserve"> "Pending processing, In progress and Pending review"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pending tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; particular invoices (new)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click on the Invoice pending </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Continue/Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button its opening in New tab</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the New tab for selected Invoice details page</t>
   </si>
 </sst>
 </file>
@@ -412,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -425,9 +480,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -436,6 +488,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +883,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -837,7 +895,7 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -847,8 +905,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -857,21 +915,21 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -883,18 +941,18 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>27</v>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -906,18 +964,18 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -929,18 +987,18 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -949,16 +1007,39 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
+++ b/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Invoices\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint124\zm-buyerautomation\Admin\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7A7ED0-02AF-496A-92FD-65E0E11996CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9934AF-CD35-40BF-913E-AF67291B2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>SL. No</t>
   </si>
@@ -370,6 +370,129 @@
   </si>
   <si>
     <t>It gets displayed the New tab for selected Invoice details page</t>
+  </si>
+  <si>
+    <t>Pending -&gt;Actions &gt; Take over editing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the digitalization screen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Supplier Dp, Invoice date, Invoice number, Validate, Delivered to, Use data Dp, Order number, Payment terms Dp, Description Sort by name, Delete icon, QTY, Unit size, Unit price, Discount, Amount"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Below of Description </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Add SKU, Add free SKU, Open market list, Open catalogue, Refresh market list data, Ask for review and Publish this invoice"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On top left </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Invoice num, Uploaded numb of days ago by kovalan outlet change last name, [OCR]Open in Staple, Refresh staple, Reject, Save and Cancel with all icons.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Once enter the required data and right of screen Image view &amp; adjustment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pending -&gt;Actions &gt; Take over editing &gt; Reject </t>
+  </si>
+  <si>
+    <t>Once click the 'Reject' it appears dialog of Reject selected files screen</t>
+  </si>
+  <si>
+    <t>It should display the New list of :                                                    *Non-food invoice                                                                                  *Image not clear/cut off - please retake                                                       *Duplicate image upload - no action required                                 *Wrong outlet/section                                                                       *Missing page                                                                                      *Others (Please specify)</t>
+  </si>
+  <si>
+    <t>Confirm rejection and X icon</t>
+  </si>
+  <si>
+    <t>Pending -&gt;Actions &gt; Take over editing &gt; Save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once click the Save ,the invoice will Saved </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed toastr </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Invoice saved successfully"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Message should display </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Invoice rejected successfully" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and redirecting to Pending page</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Once click the cancel ,the invoice will Cancel and redirecting to Pending page </t>
+  </si>
+  <si>
+    <t>Pending -&gt;Actions &gt; Take over editing &gt; Cancel</t>
+  </si>
+  <si>
+    <t>It redirected to main page</t>
   </si>
 </sst>
 </file>
@@ -467,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -483,15 +606,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -774,23 +903,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" customWidth="1"/>
+    <col min="4" max="4" width="50.26953125" customWidth="1"/>
+    <col min="5" max="5" width="55.54296875" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -836,7 +965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -859,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -882,8 +1011,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -895,7 +1024,7 @@
       <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -905,8 +1034,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -918,7 +1047,7 @@
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -928,8 +1057,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -951,8 +1080,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -974,8 +1103,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -997,8 +1126,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1020,8 +1149,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1030,16 +1159,148 @@
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="110" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
+++ b/Admin/Invoices/Manual testcases/Pending Invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sprint124\zm-buyerautomation\Admin\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9934AF-CD35-40BF-913E-AF67291B2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB664FC2-F625-4B89-AFA4-E850FE70DEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>SL. No</t>
   </si>
@@ -432,9 +432,6 @@
     <t>Once click the 'Reject' it appears dialog of Reject selected files screen</t>
   </si>
   <si>
-    <t>It should display the New list of :                                                    *Non-food invoice                                                                                  *Image not clear/cut off - please retake                                                       *Duplicate image upload - no action required                                 *Wrong outlet/section                                                                       *Missing page                                                                                      *Others (Please specify)</t>
-  </si>
-  <si>
     <t>Confirm rejection and X icon</t>
   </si>
   <si>
@@ -493,6 +490,9 @@
   </si>
   <si>
     <t>It redirected to main page</t>
+  </si>
+  <si>
+    <t>It should display the New list of :                                                    *Non-food invoice                                                                                  *Image not clear/cut off - please retake                                                       *Duplicate image upload - no action required                                 *Wrong outlet/section                                                                       *Missing page                                                                                      *Others (Please specify) and Type up to 40 characters</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -613,14 +613,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -905,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,7 +1166,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1191,12 +1184,12 @@
       <c r="F12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1214,12 +1207,12 @@
       <c r="F13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="110" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1235,11 +1228,14 @@
         <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1252,14 +1248,17 @@
         <v>43</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1269,20 +1268,20 @@
         <v>19</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1292,15 +1291,15 @@
         <v>19</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
     </row>
